--- a/tp3/excel_sheet_Jalil_tp3.xlsx
+++ b/tp3/excel_sheet_Jalil_tp3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jalil\Desktop\Ecole\M2TSI\tp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9302343E-4F29-4EBB-B17B-78FE0E7C59D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7A318E-D7AA-4581-9177-676A3FF105A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
